--- a/Excel/StringData.xlsx
+++ b/Excel/StringData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\LoveSimulation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\TEST\LoveSimulation\LoveSimulation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74870581-B6AB-469B-9AB4-712F6E623510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778132E2-50B0-48FB-817F-DDA3408FBBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3600" windowWidth="28800" windowHeight="15370" xr2:uid="{2F005F28-7D5C-47B2-BA57-1BBC075F899B}"/>
+    <workbookView xWindow="-38340" yWindow="1395" windowWidth="25260" windowHeight="16800" xr2:uid="{2F005F28-7D5C-47B2-BA57-1BBC075F899B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -66,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MBTI\nLove Simulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>새 게임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,7 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MBTI\n연애 시뮬레이션</t>
+    <t>MBTI\n&lt;color=#FFA8E1&gt;Love&lt;/color&gt; Simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBTI\n&lt;color=#FFA8E1&gt;연애&lt;/color&gt; 시뮬레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,16 +463,16 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="26.58203125" customWidth="1"/>
+    <col min="2" max="2" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,18 +483,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -513,10 +502,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -524,10 +513,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -535,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -546,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StringData.xlsx
+++ b/Excel/StringData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\TEST\LoveSimulation\LoveSimulation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778132E2-50B0-48FB-817F-DDA3408FBBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73975CBD-6C71-4001-BCE4-2037CACA8F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38340" yWindow="1395" windowWidth="25260" windowHeight="16800" xr2:uid="{2F005F28-7D5C-47B2-BA57-1BBC075F899B}"/>
+    <workbookView xWindow="5940" yWindow="4080" windowWidth="28800" windowHeight="15435" xr2:uid="{2F005F28-7D5C-47B2-BA57-1BBC075F899B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Id::int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,70 @@
   </si>
   <si>
     <t>MBTI\n&lt;color=#FFA8E1&gt;연애&lt;/color&gt; 시뮬레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISTJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISFJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESFJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENFJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +186,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BC091A-E55E-49DD-89F9-D9972A118BF1}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,6 +605,182 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StringData.xlsx
+++ b/Excel/StringData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\TEST\LoveSimulation\LoveSimulation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\LoveSimulation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73975CBD-6C71-4001-BCE4-2037CACA8F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CDA5D8-2F17-4F6B-83E5-88DF61092C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="4080" windowWidth="28800" windowHeight="15435" xr2:uid="{2F005F28-7D5C-47B2-BA57-1BBC075F899B}"/>
+    <workbookView xWindow="5730" yWindow="3600" windowWidth="28800" windowHeight="15370" xr2:uid="{2F005F28-7D5C-47B2-BA57-1BBC075F899B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
-    <t>Id::int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>En::string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kr::string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Option</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +128,18 @@
   </si>
   <si>
     <t>ENTJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id::Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>En::String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kr::String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,11 +186,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,255 +527,255 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
